--- a/Excel/amazon_sales_data (22.04.2025).xlsx
+++ b/Excel/amazon_sales_data (22.04.2025).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Shailesh Rawat\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32972008-5598-4CA2-A75C-0629994AE0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0DB77EB-791C-413F-9632-EBAD0565334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -1598,7 +1598,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[amazon_sales_data 2025 (22.04.2025).xlsx]Pivot!PivotTable1</c:name>
+    <c:name>[amazon_sales_data (22.04.2025).xlsx]Pivot!PivotTable1</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -2212,7 +2212,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[amazon_sales_data 2025 (22.04.2025).xlsx]Pivot!PivotTable2</c:name>
+    <c:name>[amazon_sales_data (22.04.2025).xlsx]Pivot!PivotTable2</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -2836,7 +2836,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[amazon_sales_data 2025 (22.04.2025).xlsx]Pivot!PivotTable3</c:name>
+    <c:name>[amazon_sales_data (22.04.2025).xlsx]Pivot!PivotTable3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -3935,7 +3935,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[amazon_sales_data 2025 (22.04.2025).xlsx]Pivot!PivotTable4</c:name>
+    <c:name>[amazon_sales_data (22.04.2025).xlsx]Pivot!PivotTable4</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -4440,7 +4440,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[amazon_sales_data 2025 (22.04.2025).xlsx]Pivot!PivotTable5</c:name>
+    <c:name>[amazon_sales_data (22.04.2025).xlsx]Pivot!PivotTable5</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -4977,7 +4977,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[amazon_sales_data 2025 (22.04.2025).xlsx]Pivot!PivotTable7</c:name>
+    <c:name>[amazon_sales_data (22.04.2025).xlsx]Pivot!PivotTable7</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -13870,11 +13870,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000004000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Payment">
-  <location ref="D16:E22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000003000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Month">
+  <location ref="G3:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="369">
         <item x="0"/>
         <item x="1"/>
@@ -14291,7 +14291,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="6">
         <item x="1"/>
         <item x="2"/>
@@ -14302,7 +14302,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="15">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
@@ -14322,16 +14322,11 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
+  <rowFields count="2">
+    <field x="11"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <rowItems count="4">
     <i>
       <x v="2"/>
     </i>
@@ -14352,7 +14347,7 @@
     <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="3" format="2" series="1">
+    <chartFormat chart="4" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -14375,511 +14370,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7FD272EE-39EC-41B8-9750-7F734D30F860}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Payment">
-  <location ref="A16:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="6"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F059B82-A922-4A8F-A519-845DFA3D180A}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Customer location">
   <location ref="G16:H20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -15475,7 +14965,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000002000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="City">
   <location ref="J3:K14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -16115,7 +15605,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Category">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -16620,7 +16110,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Product">
   <location ref="D3:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -17140,12 +16630,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000003000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Month">
-  <location ref="G3:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000004000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Payment">
+  <location ref="D16:E22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+    <pivotField numFmtId="14" showAll="0">
       <items count="369">
         <item x="0"/>
         <item x="1"/>
@@ -17562,7 +17052,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="1"/>
         <item x="2"/>
@@ -17573,7 +17063,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="15">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
@@ -17593,11 +17083,16 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
-    <field x="11"/>
-    <field x="1"/>
+  <rowFields count="1">
+    <field x="9"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
@@ -17618,7 +17113,512 @@
     <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="4" format="2" series="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7FD272EE-39EC-41B8-9750-7F734D30F860}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Payment">
+  <location ref="A16:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="6"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Sales" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -18093,7 +18093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -18485,11 +18485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18546,7 +18545,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -18579,6 +18578,10 @@
       </c>
       <c r="K2" t="s">
         <v>40</v>
+      </c>
+      <c r="L2" t="str">
+        <f>TEXT(B2,"MMM")</f>
+        <v>Mar</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -18620,7 +18623,7 @@
         <v>Feb</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -18654,8 +18657,12 @@
       <c r="K4" t="s">
         <v>17</v>
       </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L67" si="0">TEXT(B4,"MMM")</f>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -18689,8 +18696,12 @@
       <c r="K5" t="s">
         <v>17</v>
       </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -18724,8 +18735,12 @@
       <c r="K6" t="s">
         <v>17</v>
       </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -18758,6 +18773,10 @@
       </c>
       <c r="K7" t="s">
         <v>40</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -18795,7 +18814,7 @@
         <v>23</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" ref="L8:L9" si="0">TEXT(B8,"MMM")</f>
+        <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
     </row>
@@ -18838,7 +18857,7 @@
         <v>Feb</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -18871,6 +18890,10 @@
       </c>
       <c r="K10" t="s">
         <v>40</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -18908,11 +18931,11 @@
         <v>23</v>
       </c>
       <c r="L11" t="str">
-        <f>TEXT(B11,"MMM")</f>
+        <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -18946,8 +18969,12 @@
       <c r="K12" t="s">
         <v>40</v>
       </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -18980,6 +19007,10 @@
       </c>
       <c r="K13" t="s">
         <v>17</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -19017,7 +19048,7 @@
         <v>23</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" ref="L14:L15" si="1">TEXT(B14,"MMM")</f>
+        <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
     </row>
@@ -19056,11 +19087,11 @@
         <v>23</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -19094,8 +19125,12 @@
       <c r="K16" t="s">
         <v>17</v>
       </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>183</v>
       </c>
@@ -19129,8 +19164,12 @@
       <c r="K17" t="s">
         <v>40</v>
       </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>199</v>
       </c>
@@ -19163,6 +19202,10 @@
       </c>
       <c r="K18" t="s">
         <v>40</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -19200,11 +19243,11 @@
         <v>23</v>
       </c>
       <c r="L19" t="str">
-        <f>TEXT(B19,"MMM")</f>
+        <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>229</v>
       </c>
@@ -19238,8 +19281,12 @@
       <c r="K20" t="s">
         <v>40</v>
       </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>233</v>
       </c>
@@ -19273,8 +19320,12 @@
       <c r="K21" t="s">
         <v>40</v>
       </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>241</v>
       </c>
@@ -19307,6 +19358,10 @@
       </c>
       <c r="K22" t="s">
         <v>40</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -19344,11 +19399,11 @@
         <v>23</v>
       </c>
       <c r="L23" t="str">
-        <f>TEXT(B23,"MMM")</f>
+        <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>284</v>
       </c>
@@ -19382,8 +19437,12 @@
       <c r="K24" t="s">
         <v>17</v>
       </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>286</v>
       </c>
@@ -19417,8 +19476,12 @@
       <c r="K25" t="s">
         <v>17</v>
       </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>289</v>
       </c>
@@ -19451,6 +19514,10 @@
       </c>
       <c r="K26" t="s">
         <v>40</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -19488,11 +19555,11 @@
         <v>23</v>
       </c>
       <c r="L27" t="str">
-        <f>TEXT(B27,"MMM")</f>
+        <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -19526,8 +19593,12 @@
       <c r="K28" t="s">
         <v>40</v>
       </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -19561,8 +19632,12 @@
       <c r="K29" t="s">
         <v>40</v>
       </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -19596,8 +19671,12 @@
       <c r="K30" t="s">
         <v>17</v>
       </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -19631,8 +19710,12 @@
       <c r="K31" t="s">
         <v>40</v>
       </c>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -19666,8 +19749,12 @@
       <c r="K32" t="s">
         <v>17</v>
       </c>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -19700,6 +19787,10 @@
       </c>
       <c r="K33" t="s">
         <v>17</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -19737,7 +19828,7 @@
         <v>23</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" ref="L34:L41" si="2">TEXT(B34,"MMM")</f>
+        <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
     </row>
@@ -19776,7 +19867,7 @@
         <v>23</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
     </row>
@@ -19815,7 +19906,7 @@
         <v>23</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
     </row>
@@ -19854,7 +19945,7 @@
         <v>23</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
     </row>
@@ -19893,7 +19984,7 @@
         <v>23</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
     </row>
@@ -19932,7 +20023,7 @@
         <v>23</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
     </row>
@@ -19971,7 +20062,7 @@
         <v>23</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
     </row>
@@ -20010,11 +20101,11 @@
         <v>23</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>203</v>
       </c>
@@ -20048,8 +20139,12 @@
       <c r="K42" t="s">
         <v>17</v>
       </c>
+      <c r="L42" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>215</v>
       </c>
@@ -20082,6 +20177,10 @@
       </c>
       <c r="K43" t="s">
         <v>40</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -20119,11 +20218,11 @@
         <v>23</v>
       </c>
       <c r="L44" t="str">
-        <f>TEXT(B44,"MMM")</f>
+        <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>231</v>
       </c>
@@ -20156,6 +20255,10 @@
       </c>
       <c r="K45" t="s">
         <v>40</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -20193,11 +20296,11 @@
         <v>23</v>
       </c>
       <c r="L46" t="str">
-        <f>TEXT(B46,"MMM")</f>
+        <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>269</v>
       </c>
@@ -20231,8 +20334,12 @@
       <c r="K47" t="s">
         <v>40</v>
       </c>
+      <c r="L47" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>274</v>
       </c>
@@ -20266,8 +20373,12 @@
       <c r="K48" t="s">
         <v>17</v>
       </c>
+      <c r="L48" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>279</v>
       </c>
@@ -20300,6 +20411,10 @@
       </c>
       <c r="K49" t="s">
         <v>40</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -20337,7 +20452,7 @@
         <v>23</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" ref="L50:L51" si="3">TEXT(B50,"MMM")</f>
+        <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
     </row>
@@ -20376,11 +20491,11 @@
         <v>23</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -20414,8 +20529,12 @@
       <c r="K52" t="s">
         <v>40</v>
       </c>
+      <c r="L52" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -20449,8 +20568,12 @@
       <c r="K53" t="s">
         <v>17</v>
       </c>
+      <c r="L53" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -20484,8 +20607,12 @@
       <c r="K54" t="s">
         <v>17</v>
       </c>
+      <c r="L54" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -20519,8 +20646,12 @@
       <c r="K55" t="s">
         <v>40</v>
       </c>
+      <c r="L55" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -20554,8 +20685,12 @@
       <c r="K56" t="s">
         <v>40</v>
       </c>
+      <c r="L56" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -20588,6 +20723,10 @@
       </c>
       <c r="K57" t="s">
         <v>17</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="0"/>
+        <v>Apr</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -20625,11 +20764,11 @@
         <v>23</v>
       </c>
       <c r="L58" t="str">
-        <f>TEXT(B58,"MMM")</f>
+        <f t="shared" si="0"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>127</v>
       </c>
@@ -20663,8 +20802,12 @@
       <c r="K59" t="s">
         <v>17</v>
       </c>
+      <c r="L59" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>129</v>
       </c>
@@ -20698,8 +20841,12 @@
       <c r="K60" t="s">
         <v>40</v>
       </c>
+      <c r="L60" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>139</v>
       </c>
@@ -20732,6 +20879,10 @@
       </c>
       <c r="K61" t="s">
         <v>17</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -20769,11 +20920,11 @@
         <v>23</v>
       </c>
       <c r="L62" t="str">
-        <f>TEXT(B62,"MMM")</f>
+        <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>160</v>
       </c>
@@ -20806,6 +20957,10 @@
       </c>
       <c r="K63" t="s">
         <v>17</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -20843,11 +20998,11 @@
         <v>23</v>
       </c>
       <c r="L64" t="str">
-        <f>TEXT(B64,"MMM")</f>
+        <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -20880,6 +21035,10 @@
       </c>
       <c r="K65" t="s">
         <v>17</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -20917,11 +21076,11 @@
         <v>23</v>
       </c>
       <c r="L66" t="str">
-        <f>TEXT(B66,"MMM")</f>
+        <f t="shared" si="0"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>180</v>
       </c>
@@ -20955,8 +21114,12 @@
       <c r="K67" t="s">
         <v>40</v>
       </c>
+      <c r="L67" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>181</v>
       </c>
@@ -20990,8 +21153,12 @@
       <c r="K68" t="s">
         <v>17</v>
       </c>
+      <c r="L68" t="str">
+        <f t="shared" ref="L68:L131" si="1">TEXT(B68,"MMM")</f>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>196</v>
       </c>
@@ -21024,6 +21191,10 @@
       </c>
       <c r="K69" t="s">
         <v>17</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -21061,11 +21232,11 @@
         <v>23</v>
       </c>
       <c r="L70" t="str">
-        <f>TEXT(B70,"MMM")</f>
+        <f t="shared" si="1"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>212</v>
       </c>
@@ -21099,8 +21270,12 @@
       <c r="K71" t="s">
         <v>17</v>
       </c>
+      <c r="L71" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>238</v>
       </c>
@@ -21133,6 +21308,10 @@
       </c>
       <c r="K72" t="s">
         <v>40</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -21170,11 +21349,11 @@
         <v>23</v>
       </c>
       <c r="L73" t="str">
-        <f>TEXT(B73,"MMM")</f>
+        <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>252</v>
       </c>
@@ -21208,8 +21387,12 @@
       <c r="K74" t="s">
         <v>40</v>
       </c>
+      <c r="L74" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>256</v>
       </c>
@@ -21243,8 +21426,12 @@
       <c r="K75" t="s">
         <v>40</v>
       </c>
+      <c r="L75" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>262</v>
       </c>
@@ -21278,8 +21465,12 @@
       <c r="K76" t="s">
         <v>40</v>
       </c>
+      <c r="L76" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>288</v>
       </c>
@@ -21313,8 +21504,12 @@
       <c r="K77" t="s">
         <v>40</v>
       </c>
+      <c r="L77" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>300</v>
       </c>
@@ -21348,8 +21543,12 @@
       <c r="K78" t="s">
         <v>17</v>
       </c>
+      <c r="L78" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -21383,8 +21582,12 @@
       <c r="K79" t="s">
         <v>17</v>
       </c>
+      <c r="L79" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -21418,8 +21621,12 @@
       <c r="K80" t="s">
         <v>17</v>
       </c>
+      <c r="L80" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -21452,6 +21659,10 @@
       </c>
       <c r="K81" t="s">
         <v>40</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="1"/>
+        <v>Apr</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -21489,11 +21700,11 @@
         <v>23</v>
       </c>
       <c r="L82" t="str">
-        <f>TEXT(B82,"MMM")</f>
+        <f t="shared" si="1"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -21526,6 +21737,10 @@
       </c>
       <c r="K83" t="s">
         <v>40</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -21563,7 +21778,7 @@
         <v>23</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" ref="L84:L86" si="4">TEXT(B84,"MMM")</f>
+        <f t="shared" si="1"/>
         <v>Feb</v>
       </c>
     </row>
@@ -21602,7 +21817,7 @@
         <v>23</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
     </row>
@@ -21641,11 +21856,11 @@
         <v>23</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>132</v>
       </c>
@@ -21679,8 +21894,12 @@
       <c r="K87" t="s">
         <v>17</v>
       </c>
+      <c r="L87" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>146</v>
       </c>
@@ -21713,6 +21932,10 @@
       </c>
       <c r="K88" t="s">
         <v>17</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -21750,11 +21973,11 @@
         <v>23</v>
       </c>
       <c r="L89" t="str">
-        <f>TEXT(B89,"MMM")</f>
+        <f t="shared" si="1"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>173</v>
       </c>
@@ -21788,8 +22011,12 @@
       <c r="K90" t="s">
         <v>40</v>
       </c>
+      <c r="L90" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -21823,8 +22050,12 @@
       <c r="K91" t="s">
         <v>40</v>
       </c>
+      <c r="L91" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>192</v>
       </c>
@@ -21858,8 +22089,12 @@
       <c r="K92" t="s">
         <v>17</v>
       </c>
+      <c r="L92" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>207</v>
       </c>
@@ -21892,6 +22127,10 @@
       </c>
       <c r="K93" t="s">
         <v>40</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -21929,11 +22168,11 @@
         <v>23</v>
       </c>
       <c r="L94" t="str">
-        <f>TEXT(B94,"MMM")</f>
+        <f t="shared" si="1"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>213</v>
       </c>
@@ -21967,8 +22206,12 @@
       <c r="K95" t="s">
         <v>17</v>
       </c>
+      <c r="L95" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>222</v>
       </c>
@@ -22002,8 +22245,12 @@
       <c r="K96" t="s">
         <v>40</v>
       </c>
+      <c r="L96" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>235</v>
       </c>
@@ -22037,8 +22284,12 @@
       <c r="K97" t="s">
         <v>40</v>
       </c>
+      <c r="L97" t="str">
+        <f t="shared" si="1"/>
+        <v>Apr</v>
+      </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>248</v>
       </c>
@@ -22072,8 +22323,12 @@
       <c r="K98" t="s">
         <v>17</v>
       </c>
+      <c r="L98" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>250</v>
       </c>
@@ -22107,8 +22362,12 @@
       <c r="K99" t="s">
         <v>40</v>
       </c>
+      <c r="L99" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>273</v>
       </c>
@@ -22142,8 +22401,12 @@
       <c r="K100" t="s">
         <v>40</v>
       </c>
+      <c r="L100" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>276</v>
       </c>
@@ -22177,8 +22440,12 @@
       <c r="K101" t="s">
         <v>17</v>
       </c>
+      <c r="L101" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>291</v>
       </c>
@@ -22211,6 +22478,10 @@
       </c>
       <c r="K102" t="s">
         <v>40</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -22248,11 +22519,11 @@
         <v>23</v>
       </c>
       <c r="L103" t="str">
-        <f>TEXT(B103,"MMM")</f>
+        <f t="shared" si="1"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>301</v>
       </c>
@@ -22286,8 +22557,12 @@
       <c r="K104" t="s">
         <v>17</v>
       </c>
+      <c r="L104" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -22321,8 +22596,12 @@
       <c r="K105" t="s">
         <v>40</v>
       </c>
+      <c r="L105" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>69</v>
       </c>
@@ -22355,6 +22634,10 @@
       </c>
       <c r="K106" t="s">
         <v>40</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -22392,7 +22675,7 @@
         <v>23</v>
       </c>
       <c r="L107" t="str">
-        <f t="shared" ref="L107:L110" si="5">TEXT(B107,"MMM")</f>
+        <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
     </row>
@@ -22431,7 +22714,7 @@
         <v>23</v>
       </c>
       <c r="L108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Feb</v>
       </c>
     </row>
@@ -22470,7 +22753,7 @@
         <v>23</v>
       </c>
       <c r="L109" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
     </row>
@@ -22509,11 +22792,11 @@
         <v>23</v>
       </c>
       <c r="L110" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -22547,8 +22830,12 @@
       <c r="K111" t="s">
         <v>17</v>
       </c>
+      <c r="L111" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>104</v>
       </c>
@@ -22582,8 +22869,12 @@
       <c r="K112" t="s">
         <v>17</v>
       </c>
+      <c r="L112" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -22616,6 +22907,10 @@
       </c>
       <c r="K113" t="s">
         <v>17</v>
+      </c>
+      <c r="L113" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -22653,11 +22948,11 @@
         <v>23</v>
       </c>
       <c r="L114" t="str">
-        <f>TEXT(B114,"MMM")</f>
+        <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -22691,8 +22986,12 @@
       <c r="K115" t="s">
         <v>40</v>
       </c>
+      <c r="L115" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>136</v>
       </c>
@@ -22726,8 +23025,12 @@
       <c r="K116" t="s">
         <v>17</v>
       </c>
+      <c r="L116" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>138</v>
       </c>
@@ -22761,8 +23064,12 @@
       <c r="K117" t="s">
         <v>40</v>
       </c>
+      <c r="L117" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>143</v>
       </c>
@@ -22795,6 +23102,10 @@
       </c>
       <c r="K118" t="s">
         <v>40</v>
+      </c>
+      <c r="L118" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -22832,11 +23143,11 @@
         <v>23</v>
       </c>
       <c r="L119" t="str">
-        <f>TEXT(B119,"MMM")</f>
+        <f t="shared" si="1"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>153</v>
       </c>
@@ -22869,6 +23180,10 @@
       </c>
       <c r="K120" t="s">
         <v>17</v>
+      </c>
+      <c r="L120" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -22906,11 +23221,11 @@
         <v>23</v>
       </c>
       <c r="L121" t="str">
-        <f>TEXT(B121,"MMM")</f>
+        <f t="shared" si="1"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>171</v>
       </c>
@@ -22944,8 +23259,12 @@
       <c r="K122" t="s">
         <v>40</v>
       </c>
+      <c r="L122" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>216</v>
       </c>
@@ -22978,6 +23297,10 @@
       </c>
       <c r="K123" t="s">
         <v>40</v>
+      </c>
+      <c r="L123" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -23015,11 +23338,11 @@
         <v>23</v>
       </c>
       <c r="L124" t="str">
-        <f>TEXT(B124,"MMM")</f>
+        <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>224</v>
       </c>
@@ -23053,8 +23376,12 @@
       <c r="K125" t="s">
         <v>40</v>
       </c>
+      <c r="L125" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>242</v>
       </c>
@@ -23088,8 +23415,12 @@
       <c r="K126" t="s">
         <v>40</v>
       </c>
+      <c r="L126" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>243</v>
       </c>
@@ -23123,8 +23454,12 @@
       <c r="K127" t="s">
         <v>40</v>
       </c>
+      <c r="L127" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -23158,8 +23493,12 @@
       <c r="K128" t="s">
         <v>40</v>
       </c>
+      <c r="L128" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>265</v>
       </c>
@@ -23193,8 +23532,12 @@
       <c r="K129" t="s">
         <v>40</v>
       </c>
+      <c r="L129" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>267</v>
       </c>
@@ -23228,8 +23571,12 @@
       <c r="K130" t="s">
         <v>40</v>
       </c>
+      <c r="L130" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>268</v>
       </c>
@@ -23263,8 +23610,12 @@
       <c r="K131" t="s">
         <v>40</v>
       </c>
+      <c r="L131" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>272</v>
       </c>
@@ -23298,8 +23649,12 @@
       <c r="K132" t="s">
         <v>17</v>
       </c>
+      <c r="L132" t="str">
+        <f t="shared" ref="L132:L195" si="2">TEXT(B132,"MMM")</f>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>290</v>
       </c>
@@ -23333,8 +23688,12 @@
       <c r="K133" t="s">
         <v>17</v>
       </c>
+      <c r="L133" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>292</v>
       </c>
@@ -23368,8 +23727,12 @@
       <c r="K134" t="s">
         <v>40</v>
       </c>
+      <c r="L134" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>296</v>
       </c>
@@ -23403,8 +23766,12 @@
       <c r="K135" t="s">
         <v>40</v>
       </c>
+      <c r="L135" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>297</v>
       </c>
@@ -23438,8 +23805,12 @@
       <c r="K136" t="s">
         <v>40</v>
       </c>
+      <c r="L136" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>67</v>
       </c>
@@ -23473,8 +23844,12 @@
       <c r="K137" t="s">
         <v>40</v>
       </c>
+      <c r="L137" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>106</v>
       </c>
@@ -23508,8 +23883,12 @@
       <c r="K138" t="s">
         <v>40</v>
       </c>
+      <c r="L138" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>110</v>
       </c>
@@ -23543,8 +23922,12 @@
       <c r="K139" t="s">
         <v>17</v>
       </c>
+      <c r="L139" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>131</v>
       </c>
@@ -23578,8 +23961,12 @@
       <c r="K140" t="s">
         <v>17</v>
       </c>
+      <c r="L140" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -23613,8 +24000,12 @@
       <c r="K141" t="s">
         <v>17</v>
       </c>
+      <c r="L141" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>164</v>
       </c>
@@ -23648,8 +24039,12 @@
       <c r="K142" t="s">
         <v>40</v>
       </c>
+      <c r="L142" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>169</v>
       </c>
@@ -23683,8 +24078,12 @@
       <c r="K143" t="s">
         <v>40</v>
       </c>
+      <c r="L143" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>191</v>
       </c>
@@ -23718,8 +24117,12 @@
       <c r="K144" t="s">
         <v>17</v>
       </c>
+      <c r="L144" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>197</v>
       </c>
@@ -23753,8 +24156,12 @@
       <c r="K145" t="s">
         <v>17</v>
       </c>
+      <c r="L145" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>201</v>
       </c>
@@ -23787,6 +24194,10 @@
       </c>
       <c r="K146" t="s">
         <v>17</v>
+      </c>
+      <c r="L146" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -23824,11 +24235,11 @@
         <v>23</v>
       </c>
       <c r="L147" t="str">
-        <f>TEXT(B147,"MMM")</f>
+        <f t="shared" si="2"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>214</v>
       </c>
@@ -23862,8 +24273,12 @@
       <c r="K148" t="s">
         <v>40</v>
       </c>
+      <c r="L148" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>234</v>
       </c>
@@ -23897,8 +24312,12 @@
       <c r="K149" t="s">
         <v>17</v>
       </c>
+      <c r="L149" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>253</v>
       </c>
@@ -23932,8 +24351,12 @@
       <c r="K150" t="s">
         <v>40</v>
       </c>
+      <c r="L150" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>266</v>
       </c>
@@ -23967,8 +24390,12 @@
       <c r="K151" t="s">
         <v>17</v>
       </c>
+      <c r="L151" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>285</v>
       </c>
@@ -24002,8 +24429,12 @@
       <c r="K152" t="s">
         <v>40</v>
       </c>
+      <c r="L152" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>298</v>
       </c>
@@ -24037,8 +24468,12 @@
       <c r="K153" t="s">
         <v>17</v>
       </c>
+      <c r="L153" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>41</v>
       </c>
@@ -24072,8 +24507,12 @@
       <c r="K154" t="s">
         <v>40</v>
       </c>
+      <c r="L154" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -24107,8 +24546,12 @@
       <c r="K155" t="s">
         <v>17</v>
       </c>
+      <c r="L155" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>71</v>
       </c>
@@ -24142,8 +24585,12 @@
       <c r="K156" t="s">
         <v>17</v>
       </c>
+      <c r="L156" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>94</v>
       </c>
@@ -24177,8 +24624,12 @@
       <c r="K157" t="s">
         <v>17</v>
       </c>
+      <c r="L157" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>100</v>
       </c>
@@ -24212,8 +24663,12 @@
       <c r="K158" t="s">
         <v>17</v>
       </c>
+      <c r="L158" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>116</v>
       </c>
@@ -24247,8 +24702,12 @@
       <c r="K159" t="s">
         <v>40</v>
       </c>
+      <c r="L159" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>126</v>
       </c>
@@ -24282,8 +24741,12 @@
       <c r="K160" t="s">
         <v>17</v>
       </c>
+      <c r="L160" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>140</v>
       </c>
@@ -24316,6 +24779,10 @@
       </c>
       <c r="K161" t="s">
         <v>40</v>
+      </c>
+      <c r="L161" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -24353,7 +24820,7 @@
         <v>23</v>
       </c>
       <c r="L162" t="str">
-        <f t="shared" ref="L162:L163" si="6">TEXT(B162,"MMM")</f>
+        <f t="shared" si="2"/>
         <v>Feb</v>
       </c>
     </row>
@@ -24392,11 +24859,11 @@
         <v>23</v>
       </c>
       <c r="L163" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>168</v>
       </c>
@@ -24430,8 +24897,12 @@
       <c r="K164" t="s">
         <v>40</v>
       </c>
+      <c r="L164" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>175</v>
       </c>
@@ -24464,6 +24935,10 @@
       </c>
       <c r="K165" t="s">
         <v>17</v>
+      </c>
+      <c r="L165" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -24501,11 +24976,11 @@
         <v>23</v>
       </c>
       <c r="L166" t="str">
-        <f>TEXT(B166,"MMM")</f>
+        <f t="shared" si="2"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>193</v>
       </c>
@@ -24539,8 +25014,12 @@
       <c r="K167" t="s">
         <v>40</v>
       </c>
+      <c r="L167" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>194</v>
       </c>
@@ -24574,8 +25053,12 @@
       <c r="K168" t="s">
         <v>40</v>
       </c>
+      <c r="L168" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>195</v>
       </c>
@@ -24609,8 +25092,12 @@
       <c r="K169" t="s">
         <v>40</v>
       </c>
+      <c r="L169" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>209</v>
       </c>
@@ -24643,6 +25130,10 @@
       </c>
       <c r="K170" t="s">
         <v>17</v>
+      </c>
+      <c r="L170" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -24680,7 +25171,7 @@
         <v>23</v>
       </c>
       <c r="L171" t="str">
-        <f t="shared" ref="L171:L172" si="7">TEXT(B171,"MMM")</f>
+        <f t="shared" si="2"/>
         <v>Feb</v>
       </c>
     </row>
@@ -24719,11 +25210,11 @@
         <v>23</v>
       </c>
       <c r="L172" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>225</v>
       </c>
@@ -24756,6 +25247,10 @@
       </c>
       <c r="K173" t="s">
         <v>17</v>
+      </c>
+      <c r="L173" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -24793,11 +25288,11 @@
         <v>23</v>
       </c>
       <c r="L174" t="str">
-        <f>TEXT(B174,"MMM")</f>
+        <f t="shared" si="2"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>255</v>
       </c>
@@ -24830,6 +25325,10 @@
       </c>
       <c r="K175" t="s">
         <v>17</v>
+      </c>
+      <c r="L175" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -24867,7 +25366,7 @@
         <v>23</v>
       </c>
       <c r="L176" t="str">
-        <f t="shared" ref="L176:L177" si="8">TEXT(B176,"MMM")</f>
+        <f t="shared" si="2"/>
         <v>Mar</v>
       </c>
     </row>
@@ -24906,11 +25405,11 @@
         <v>23</v>
       </c>
       <c r="L177" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>260</v>
       </c>
@@ -24944,8 +25443,12 @@
       <c r="K178" t="s">
         <v>40</v>
       </c>
+      <c r="L178" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>261</v>
       </c>
@@ -24978,6 +25481,10 @@
       </c>
       <c r="K179" t="s">
         <v>40</v>
+      </c>
+      <c r="L179" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -25015,11 +25522,11 @@
         <v>23</v>
       </c>
       <c r="L180" t="str">
-        <f>TEXT(B180,"MMM")</f>
+        <f t="shared" si="2"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>277</v>
       </c>
@@ -25053,8 +25560,12 @@
       <c r="K181" t="s">
         <v>40</v>
       </c>
+      <c r="L181" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>280</v>
       </c>
@@ -25088,8 +25599,12 @@
       <c r="K182" t="s">
         <v>17</v>
       </c>
+      <c r="L182" t="str">
+        <f t="shared" si="2"/>
+        <v>Apr</v>
+      </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>287</v>
       </c>
@@ -25123,8 +25638,12 @@
       <c r="K183" t="s">
         <v>17</v>
       </c>
+      <c r="L183" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>299</v>
       </c>
@@ -25158,8 +25677,12 @@
       <c r="K184" t="s">
         <v>17</v>
       </c>
+      <c r="L184" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -25192,6 +25715,10 @@
       </c>
       <c r="K185" t="s">
         <v>17</v>
+      </c>
+      <c r="L185" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -25229,11 +25756,11 @@
         <v>23</v>
       </c>
       <c r="L186" t="str">
-        <f>TEXT(B186,"MMM")</f>
+        <f t="shared" si="2"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>66</v>
       </c>
@@ -25266,6 +25793,10 @@
       </c>
       <c r="K187" t="s">
         <v>40</v>
+      </c>
+      <c r="L187" t="str">
+        <f t="shared" si="2"/>
+        <v>Apr</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -25303,11 +25834,11 @@
         <v>23</v>
       </c>
       <c r="L188" t="str">
-        <f>TEXT(B188,"MMM")</f>
+        <f t="shared" si="2"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>86</v>
       </c>
@@ -25340,6 +25871,10 @@
       </c>
       <c r="K189" t="s">
         <v>17</v>
+      </c>
+      <c r="L189" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -25377,11 +25912,11 @@
         <v>23</v>
       </c>
       <c r="L190" t="str">
-        <f>TEXT(B190,"MMM")</f>
+        <f t="shared" si="2"/>
         <v>Apr</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>90</v>
       </c>
@@ -25414,6 +25949,10 @@
       </c>
       <c r="K191" t="s">
         <v>17</v>
+      </c>
+      <c r="L191" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -25451,11 +25990,11 @@
         <v>23</v>
       </c>
       <c r="L192" t="str">
-        <f>TEXT(B192,"MMM")</f>
+        <f t="shared" si="2"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>114</v>
       </c>
@@ -25488,6 +26027,10 @@
       </c>
       <c r="K193" t="s">
         <v>17</v>
+      </c>
+      <c r="L193" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -25525,11 +26068,11 @@
         <v>23</v>
       </c>
       <c r="L194" t="str">
-        <f>TEXT(B194,"MMM")</f>
+        <f t="shared" si="2"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>148</v>
       </c>
@@ -25563,8 +26106,12 @@
       <c r="K195" t="s">
         <v>17</v>
       </c>
+      <c r="L195" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>149</v>
       </c>
@@ -25598,8 +26145,12 @@
       <c r="K196" t="s">
         <v>40</v>
       </c>
+      <c r="L196" t="str">
+        <f t="shared" ref="L196:L251" si="3">TEXT(B196,"MMM")</f>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>162</v>
       </c>
@@ -25633,8 +26184,12 @@
       <c r="K197" t="s">
         <v>40</v>
       </c>
+      <c r="L197" t="str">
+        <f t="shared" si="3"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>170</v>
       </c>
@@ -25667,6 +26222,10 @@
       </c>
       <c r="K198" t="s">
         <v>40</v>
+      </c>
+      <c r="L198" t="str">
+        <f t="shared" si="3"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -25704,7 +26263,7 @@
         <v>23</v>
       </c>
       <c r="L199" t="str">
-        <f t="shared" ref="L199:L202" si="9">TEXT(B199,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Feb</v>
       </c>
     </row>
@@ -25743,7 +26302,7 @@
         <v>23</v>
       </c>
       <c r="L200" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Feb</v>
       </c>
     </row>
@@ -25782,7 +26341,7 @@
         <v>23</v>
       </c>
       <c r="L201" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
@@ -25821,11 +26380,11 @@
         <v>23</v>
       </c>
       <c r="L202" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>228</v>
       </c>
@@ -25859,8 +26418,12 @@
       <c r="K203" t="s">
         <v>17</v>
       </c>
+      <c r="L203" t="str">
+        <f t="shared" si="3"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>239</v>
       </c>
@@ -25893,6 +26456,10 @@
       </c>
       <c r="K204" t="s">
         <v>40</v>
+      </c>
+      <c r="L204" t="str">
+        <f t="shared" si="3"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -25930,11 +26497,11 @@
         <v>23</v>
       </c>
       <c r="L205" t="str">
-        <f>TEXT(B205,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>263</v>
       </c>
@@ -25968,8 +26535,12 @@
       <c r="K206" t="s">
         <v>40</v>
       </c>
+      <c r="L206" t="str">
+        <f t="shared" si="3"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>271</v>
       </c>
@@ -26003,8 +26574,12 @@
       <c r="K207" t="s">
         <v>17</v>
       </c>
+      <c r="L207" t="str">
+        <f t="shared" si="3"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>278</v>
       </c>
@@ -26037,6 +26612,10 @@
       </c>
       <c r="K208" t="s">
         <v>17</v>
+      </c>
+      <c r="L208" t="str">
+        <f t="shared" si="3"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -26074,11 +26653,11 @@
         <v>23</v>
       </c>
       <c r="L209" t="str">
-        <f>TEXT(B209,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>302</v>
       </c>
@@ -26111,6 +26690,10 @@
       </c>
       <c r="K210" t="s">
         <v>17</v>
+      </c>
+      <c r="L210" t="str">
+        <f t="shared" si="3"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -26148,11 +26731,11 @@
         <v>23</v>
       </c>
       <c r="L211" t="str">
-        <f>TEXT(B211,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>47</v>
       </c>
@@ -26185,6 +26768,10 @@
       </c>
       <c r="K212" t="s">
         <v>17</v>
+      </c>
+      <c r="L212" t="str">
+        <f t="shared" si="3"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -26222,11 +26809,11 @@
         <v>23</v>
       </c>
       <c r="L213" t="str">
-        <f>TEXT(B213,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>92</v>
       </c>
@@ -26259,6 +26846,10 @@
       </c>
       <c r="K214" t="s">
         <v>40</v>
+      </c>
+      <c r="L214" t="str">
+        <f t="shared" si="3"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -26296,11 +26887,11 @@
         <v>23</v>
       </c>
       <c r="L215" t="str">
-        <f>TEXT(B215,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>115</v>
       </c>
@@ -26333,6 +26924,10 @@
       </c>
       <c r="K216" t="s">
         <v>40</v>
+      </c>
+      <c r="L216" t="str">
+        <f t="shared" si="3"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -26370,7 +26965,7 @@
         <v>23</v>
       </c>
       <c r="L217" t="str">
-        <f t="shared" ref="L217:L219" si="10">TEXT(B217,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
@@ -26409,7 +27004,7 @@
         <v>23</v>
       </c>
       <c r="L218" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>Feb</v>
       </c>
     </row>
@@ -26448,11 +27043,11 @@
         <v>23</v>
       </c>
       <c r="L219" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>189</v>
       </c>
@@ -26486,8 +27081,12 @@
       <c r="K220" t="s">
         <v>17</v>
       </c>
+      <c r="L220" t="str">
+        <f t="shared" si="3"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>190</v>
       </c>
@@ -26520,6 +27119,10 @@
       </c>
       <c r="K221" t="s">
         <v>40</v>
+      </c>
+      <c r="L221" t="str">
+        <f t="shared" si="3"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
@@ -26557,7 +27160,7 @@
         <v>23</v>
       </c>
       <c r="L222" t="str">
-        <f t="shared" ref="L222:L224" si="11">TEXT(B222,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Feb</v>
       </c>
     </row>
@@ -26596,7 +27199,7 @@
         <v>23</v>
       </c>
       <c r="L223" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>Feb</v>
       </c>
     </row>
@@ -26635,11 +27238,11 @@
         <v>23</v>
       </c>
       <c r="L224" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>247</v>
       </c>
@@ -26673,8 +27276,12 @@
       <c r="K225" t="s">
         <v>17</v>
       </c>
+      <c r="L225" t="str">
+        <f t="shared" si="3"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>254</v>
       </c>
@@ -26707,6 +27314,10 @@
       </c>
       <c r="K226" t="s">
         <v>40</v>
+      </c>
+      <c r="L226" t="str">
+        <f t="shared" si="3"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -26744,7 +27355,7 @@
         <v>23</v>
       </c>
       <c r="L227" t="str">
-        <f t="shared" ref="L227:L229" si="12">TEXT(B227,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Feb</v>
       </c>
     </row>
@@ -26783,7 +27394,7 @@
         <v>23</v>
       </c>
       <c r="L228" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
@@ -26822,11 +27433,11 @@
         <v>23</v>
       </c>
       <c r="L229" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>62</v>
       </c>
@@ -26859,6 +27470,10 @@
       </c>
       <c r="K230" t="s">
         <v>40</v>
+      </c>
+      <c r="L230" t="str">
+        <f t="shared" si="3"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -26896,11 +27511,11 @@
         <v>23</v>
       </c>
       <c r="L231" t="str">
-        <f>TEXT(B231,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>76</v>
       </c>
@@ -26933,6 +27548,10 @@
       </c>
       <c r="K232" t="s">
         <v>40</v>
+      </c>
+      <c r="L232" t="str">
+        <f t="shared" si="3"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -26970,7 +27589,7 @@
         <v>23</v>
       </c>
       <c r="L233" t="str">
-        <f t="shared" ref="L233:L234" si="13">TEXT(B233,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
@@ -27009,11 +27628,11 @@
         <v>23</v>
       </c>
       <c r="L234" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>135</v>
       </c>
@@ -27046,6 +27665,10 @@
       </c>
       <c r="K235" t="s">
         <v>17</v>
+      </c>
+      <c r="L235" t="str">
+        <f t="shared" si="3"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -27083,11 +27706,11 @@
         <v>23</v>
       </c>
       <c r="L236" t="str">
-        <f>TEXT(B236,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>147</v>
       </c>
@@ -27121,8 +27744,12 @@
       <c r="K237" t="s">
         <v>17</v>
       </c>
+      <c r="L237" t="str">
+        <f t="shared" si="3"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>152</v>
       </c>
@@ -27155,6 +27782,10 @@
       </c>
       <c r="K238" t="s">
         <v>40</v>
+      </c>
+      <c r="L238" t="str">
+        <f t="shared" si="3"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -27192,11 +27823,11 @@
         <v>23</v>
       </c>
       <c r="L239" t="str">
-        <f>TEXT(B239,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>198</v>
       </c>
@@ -27230,8 +27861,12 @@
       <c r="K240" t="s">
         <v>17</v>
       </c>
+      <c r="L240" t="str">
+        <f t="shared" si="3"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>205</v>
       </c>
@@ -27264,6 +27899,10 @@
       </c>
       <c r="K241" t="s">
         <v>40</v>
+      </c>
+      <c r="L241" t="str">
+        <f t="shared" si="3"/>
+        <v>Feb</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -27301,11 +27940,11 @@
         <v>23</v>
       </c>
       <c r="L242" t="str">
-        <f>TEXT(B242,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>220</v>
       </c>
@@ -27339,8 +27978,12 @@
       <c r="K243" t="s">
         <v>40</v>
       </c>
+      <c r="L243" t="str">
+        <f t="shared" si="3"/>
+        <v>Mar</v>
+      </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>226</v>
       </c>
@@ -27374,8 +28017,12 @@
       <c r="K244" t="s">
         <v>40</v>
       </c>
+      <c r="L244" t="str">
+        <f t="shared" si="3"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>232</v>
       </c>
@@ -27408,6 +28055,10 @@
       </c>
       <c r="K245" t="s">
         <v>17</v>
+      </c>
+      <c r="L245" t="str">
+        <f t="shared" si="3"/>
+        <v>Mar</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -27445,7 +28096,7 @@
         <v>23</v>
       </c>
       <c r="L246" t="str">
-        <f t="shared" ref="L246:L249" si="14">TEXT(B246,"MMM")</f>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
@@ -27484,7 +28135,7 @@
         <v>23</v>
       </c>
       <c r="L247" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>Feb</v>
       </c>
     </row>
@@ -27523,7 +28174,7 @@
         <v>23</v>
       </c>
       <c r="L248" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>Mar</v>
       </c>
     </row>
@@ -27562,11 +28213,11 @@
         <v>23</v>
       </c>
       <c r="L249" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>Feb</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>275</v>
       </c>
@@ -27600,8 +28251,12 @@
       <c r="K250" t="s">
         <v>17</v>
       </c>
+      <c r="L250" t="str">
+        <f t="shared" si="3"/>
+        <v>Feb</v>
+      </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>303</v>
       </c>
@@ -27634,15 +28289,14 @@
       </c>
       <c r="K251" t="s">
         <v>40</v>
+      </c>
+      <c r="L251" t="str">
+        <f t="shared" si="3"/>
+        <v>Feb</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K251" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K251">
       <sortCondition ref="I1:I251"/>
     </sortState>
@@ -27655,7 +28309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:W12"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
